--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H2">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I2">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J2">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N2">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O2">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P2">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q2">
-        <v>22.980030156237</v>
+        <v>58.17589476427624</v>
       </c>
       <c r="R2">
-        <v>91.92012062494801</v>
+        <v>232.7035790571049</v>
       </c>
       <c r="S2">
-        <v>0.01046503656759995</v>
+        <v>0.02940903679598656</v>
       </c>
       <c r="T2">
-        <v>0.007074187257337776</v>
+        <v>0.02187307836898137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H3">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I3">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J3">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.543219</v>
       </c>
       <c r="O3">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P3">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q3">
-        <v>141.4874543993735</v>
+        <v>108.6516010691691</v>
       </c>
       <c r="R3">
-        <v>848.924726396241</v>
+        <v>651.9096064150149</v>
       </c>
       <c r="S3">
-        <v>0.0644329608829606</v>
+        <v>0.05492547981828709</v>
       </c>
       <c r="T3">
-        <v>0.06533338338854734</v>
+        <v>0.0612765388842955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H4">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I4">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J4">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N4">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O4">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P4">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q4">
-        <v>1.581730444635</v>
+        <v>1.293185883448333</v>
       </c>
       <c r="R4">
-        <v>9.49038266781</v>
+        <v>7.759115300689999</v>
       </c>
       <c r="S4">
-        <v>0.0007203152837768922</v>
+        <v>0.0006537304047403516</v>
       </c>
       <c r="T4">
-        <v>0.0007303813754750364</v>
+        <v>0.0007293215589275786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H5">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I5">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J5">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N5">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O5">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P5">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q5">
-        <v>459.1492540533855</v>
+        <v>452.2761102938325</v>
       </c>
       <c r="R5">
-        <v>1836.597016213542</v>
+        <v>1809.10444117533</v>
       </c>
       <c r="S5">
-        <v>0.2090951883433795</v>
+        <v>0.2286342964465184</v>
       </c>
       <c r="T5">
-        <v>0.1413448015584539</v>
+        <v>0.1700475917896805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H6">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I6">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J6">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N6">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O6">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P6">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q6">
-        <v>56.15230277612451</v>
+        <v>5.082990110325832</v>
       </c>
       <c r="R6">
-        <v>336.913816656747</v>
+        <v>30.497940661955</v>
       </c>
       <c r="S6">
-        <v>0.02557158967642159</v>
+        <v>0.002569549532395025</v>
       </c>
       <c r="T6">
-        <v>0.02592894148103761</v>
+        <v>0.002866667753433153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H7">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I7">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J7">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N7">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O7">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P7">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q7">
-        <v>20.994380753797</v>
+        <v>0.1592268301216666</v>
       </c>
       <c r="R7">
-        <v>125.966284522782</v>
+        <v>0.9553609807299999</v>
       </c>
       <c r="S7">
-        <v>0.009560777806158429</v>
+        <v>8.049223350891856E-05</v>
       </c>
       <c r="T7">
-        <v>0.009694385503051588</v>
+        <v>8.979958832969299E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>313.118858</v>
       </c>
       <c r="I8">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J8">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N8">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O8">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P8">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q8">
-        <v>25.67219767560933</v>
+        <v>84.63253082348567</v>
       </c>
       <c r="R8">
-        <v>154.033186053656</v>
+        <v>507.7951849409141</v>
       </c>
       <c r="S8">
-        <v>0.01169104155300636</v>
+        <v>0.04278337657221114</v>
       </c>
       <c r="T8">
-        <v>0.01185441875597548</v>
+        <v>0.04773043852874458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>313.118858</v>
       </c>
       <c r="I9">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J9">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.543219</v>
       </c>
       <c r="O9">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P9">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q9">
         <v>158.0630605471002</v>
@@ -1013,10 +1013,10 @@
         <v>1422.567544923902</v>
       </c>
       <c r="S9">
-        <v>0.07198144203319158</v>
+        <v>0.07990392554426839</v>
       </c>
       <c r="T9">
-        <v>0.1094810269023039</v>
+        <v>0.1337148810575628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>313.118858</v>
       </c>
       <c r="I10">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J10">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N10">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O10">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P10">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q10">
-        <v>1.767034088646666</v>
+        <v>1.881287680832444</v>
       </c>
       <c r="R10">
-        <v>15.90330679782</v>
+        <v>16.931589127492</v>
       </c>
       <c r="S10">
-        <v>0.000804702005530836</v>
+        <v>0.0009510272055740145</v>
       </c>
       <c r="T10">
-        <v>0.001223921047250422</v>
+        <v>0.001591492393016196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>313.118858</v>
       </c>
       <c r="I11">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J11">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N11">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O11">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P11">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q11">
-        <v>512.9397277778539</v>
+        <v>657.9575956719741</v>
       </c>
       <c r="R11">
-        <v>3077.638366667124</v>
+        <v>3947.745574031845</v>
       </c>
       <c r="S11">
-        <v>0.2335912081783363</v>
+        <v>0.3326102541219189</v>
       </c>
       <c r="T11">
-        <v>0.2368555433581681</v>
+        <v>0.3710701342518155</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>313.118858</v>
       </c>
       <c r="I12">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J12">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N12">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O12">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P12">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q12">
-        <v>62.73068429451489</v>
+        <v>7.394580159543778</v>
       </c>
       <c r="R12">
-        <v>564.5761586506341</v>
+        <v>66.55122143589401</v>
       </c>
       <c r="S12">
-        <v>0.02856736482021071</v>
+        <v>0.00373810288409065</v>
       </c>
       <c r="T12">
-        <v>0.04344987191236385</v>
+        <v>0.006255512218235035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>313.118858</v>
       </c>
       <c r="I13">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J13">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N13">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O13">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P13">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q13">
-        <v>23.45392452160045</v>
+        <v>0.2316383729515556</v>
       </c>
       <c r="R13">
-        <v>211.085320694404</v>
+        <v>2.084745356564</v>
       </c>
       <c r="S13">
-        <v>0.01068084663525393</v>
+        <v>0.0001170976649538001</v>
       </c>
       <c r="T13">
-        <v>0.01624516020774375</v>
+        <v>0.0001959565845452867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H14">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I14">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J14">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N14">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O14">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P14">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q14">
-        <v>0.01399997477666667</v>
+        <v>0.117535099175</v>
       </c>
       <c r="R14">
-        <v>0.08399984866</v>
+        <v>0.7052105950499999</v>
       </c>
       <c r="S14">
-        <v>6.375546376014187E-06</v>
+        <v>5.941625943981315E-05</v>
       </c>
       <c r="T14">
-        <v>6.464641853914123E-06</v>
+        <v>6.628658946573117E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H15">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I15">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J15">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.543219</v>
       </c>
       <c r="O15">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P15">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q15">
-        <v>0.08619748448277777</v>
+        <v>0.2195131980166667</v>
       </c>
       <c r="R15">
-        <v>0.7757773603449999</v>
+        <v>1.97561878215</v>
       </c>
       <c r="S15">
-        <v>3.925407499530937E-05</v>
+        <v>0.0001109681551755184</v>
       </c>
       <c r="T15">
-        <v>5.970395034048987E-05</v>
+        <v>0.0001856991827297772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H16">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I16">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J16">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N16">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O16">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P16">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q16">
-        <v>0.0009636273833333331</v>
+        <v>0.002612675433333333</v>
       </c>
       <c r="R16">
-        <v>0.008672646449999998</v>
+        <v>0.0235140789</v>
       </c>
       <c r="S16">
-        <v>4.388330100335825E-07</v>
+        <v>1.320757820162528E-06</v>
       </c>
       <c r="T16">
-        <v>6.674482647201203E-07</v>
+        <v>2.210216502204708E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H17">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I17">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J17">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N17">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O17">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P17">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q17">
-        <v>0.279724523065</v>
+        <v>0.91375160955</v>
       </c>
       <c r="R17">
-        <v>1.67834713839</v>
+        <v>5.482509657300001</v>
       </c>
       <c r="S17">
-        <v>0.0001273857058858199</v>
+        <v>0.0004619190614348639</v>
       </c>
       <c r="T17">
-        <v>0.0001291658655261319</v>
+        <v>0.0005153309797757437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H18">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I18">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J18">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N18">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O18">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P18">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q18">
-        <v>0.03420930334611111</v>
+        <v>0.01026936928333333</v>
       </c>
       <c r="R18">
-        <v>0.307883730115</v>
+        <v>0.09242432354999999</v>
       </c>
       <c r="S18">
-        <v>1.557881378027726E-05</v>
+        <v>5.191364229959023E-06</v>
       </c>
       <c r="T18">
-        <v>2.369478135486713E-05</v>
+        <v>8.687466176500634E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.14495</v>
+      </c>
+      <c r="H19">
+        <v>0.43485</v>
+      </c>
+      <c r="I19">
+        <v>0.0006389782197958942</v>
+      </c>
+      <c r="J19">
+        <v>0.0007784865732280483</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.05691833333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.170755</v>
-      </c>
-      <c r="I19">
-        <v>0.00019485762472117</v>
-      </c>
-      <c r="J19">
-        <v>0.0002285557587770574</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M19">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N19">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O19">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P19">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q19">
-        <v>0.01279027046555556</v>
+        <v>0.0003216923666666666</v>
       </c>
       <c r="R19">
-        <v>0.11511243419</v>
+        <v>0.0028952313</v>
       </c>
       <c r="S19">
-        <v>5.824650673715679E-06</v>
+        <v>1.626216955772111E-07</v>
       </c>
       <c r="T19">
-        <v>8.859071436934291E-06</v>
+        <v>2.721385780907451E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H20">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I20">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J20">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N20">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O20">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P20">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q20">
-        <v>8.799303656969</v>
+        <v>40.71398847768825</v>
       </c>
       <c r="R20">
-        <v>35.197214627876</v>
+        <v>162.855953910753</v>
       </c>
       <c r="S20">
-        <v>0.004007176401141657</v>
+        <v>0.0205817063940882</v>
       </c>
       <c r="T20">
-        <v>0.002708783294902731</v>
+        <v>0.01530771919013318</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H21">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I21">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J21">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.543219</v>
       </c>
       <c r="O21">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P21">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q21">
-        <v>54.17708621125283</v>
+        <v>76.03905452484649</v>
       </c>
       <c r="R21">
-        <v>325.062517267517</v>
+        <v>456.234327149079</v>
       </c>
       <c r="S21">
-        <v>0.02467208199780782</v>
+        <v>0.03843920856764255</v>
       </c>
       <c r="T21">
-        <v>0.02501686357521912</v>
+        <v>0.04288395233449505</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H22">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I22">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J22">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N22">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O22">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P22">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q22">
-        <v>0.6056618024949999</v>
+        <v>0.9050269939389999</v>
       </c>
       <c r="R22">
-        <v>3.633970814969999</v>
+        <v>5.430161963633999</v>
       </c>
       <c r="S22">
-        <v>0.0002758165619285926</v>
+        <v>0.0004575085999787163</v>
       </c>
       <c r="T22">
-        <v>0.0002796709779971819</v>
+        <v>0.0005104105345869273</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H23">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I23">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J23">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N23">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O23">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P23">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q23">
-        <v>175.8132466675635</v>
+        <v>316.5222368791845</v>
       </c>
       <c r="R23">
-        <v>703.2529866702539</v>
+        <v>1266.088947516738</v>
       </c>
       <c r="S23">
-        <v>0.08006482336774291</v>
+        <v>0.1600080952574193</v>
       </c>
       <c r="T23">
-        <v>0.05412246288585913</v>
+        <v>0.1190066043820447</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H24">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I24">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J24">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N24">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O24">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P24">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q24">
-        <v>21.50132788363983</v>
+        <v>3.557294677160499</v>
       </c>
       <c r="R24">
-        <v>129.007967301839</v>
+        <v>21.343768062963</v>
       </c>
       <c r="S24">
-        <v>0.009791640003273745</v>
+        <v>0.001798281066044241</v>
       </c>
       <c r="T24">
-        <v>0.009928473898608247</v>
+        <v>0.002006217151546202</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H25">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I25">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J25">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N25">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O25">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P25">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q25">
-        <v>8.038976889355666</v>
+        <v>0.111433770863</v>
       </c>
       <c r="R25">
-        <v>48.233861336134</v>
+        <v>0.668602625178</v>
       </c>
       <c r="S25">
-        <v>0.003660925879610507</v>
+        <v>5.633192030658529E-05</v>
       </c>
       <c r="T25">
-        <v>0.003712085720910893</v>
+        <v>6.284560674778568E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H26">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I26">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J26">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N26">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O26">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P26">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q26">
-        <v>14.31578806964134</v>
+        <v>0.2748518494176667</v>
       </c>
       <c r="R26">
-        <v>85.89472841784801</v>
+        <v>1.649111096506</v>
       </c>
       <c r="S26">
-        <v>0.00651936679909649</v>
+        <v>0.0001389429107316916</v>
       </c>
       <c r="T26">
-        <v>0.006610472104636373</v>
+        <v>0.0001550089448524587</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H27">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I27">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J27">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.543219</v>
       </c>
       <c r="O27">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P27">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q27">
-        <v>88.14193880179623</v>
+        <v>0.5133241803508889</v>
       </c>
       <c r="R27">
-        <v>793.277449216166</v>
+        <v>4.619917623158</v>
       </c>
       <c r="S27">
-        <v>0.04013957363975015</v>
+        <v>0.0002594952732463873</v>
       </c>
       <c r="T27">
-        <v>0.06105075999275094</v>
+        <v>0.0004342512506211827</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H28">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I28">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J28">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N28">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O28">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P28">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q28">
-        <v>0.9853650180066665</v>
+        <v>0.006109653029777777</v>
       </c>
       <c r="R28">
-        <v>8.868285162059999</v>
+        <v>0.054986877268</v>
       </c>
       <c r="S28">
-        <v>0.000448732263437644</v>
+        <v>3.088547438616792E-06</v>
       </c>
       <c r="T28">
-        <v>0.0006825046514446739</v>
+        <v>5.168516447498972E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H29">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I29">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J29">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N29">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O29">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P29">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q29">
-        <v>286.034586058982</v>
+        <v>2.136777197246</v>
       </c>
       <c r="R29">
-        <v>1716.207516353892</v>
+        <v>12.820663183476</v>
       </c>
       <c r="S29">
-        <v>0.1302592895811815</v>
+        <v>0.001080182083546067</v>
       </c>
       <c r="T29">
-        <v>0.1320796062994166</v>
+        <v>0.00120508404593841</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H30">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I30">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J30">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N30">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O30">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P30">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q30">
-        <v>34.98100136074689</v>
+        <v>0.02401457232511111</v>
       </c>
       <c r="R30">
-        <v>314.8290122467221</v>
+        <v>0.216131150926</v>
       </c>
       <c r="S30">
-        <v>0.01593024273347713</v>
+        <v>1.213982946047877E-05</v>
       </c>
       <c r="T30">
-        <v>0.02422929138401856</v>
+        <v>2.031534547658346E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H31">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I31">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J31">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N31">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O31">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P31">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q31">
-        <v>13.07879508779244</v>
+        <v>0.0007522667062222222</v>
       </c>
       <c r="R31">
-        <v>117.709155790132</v>
+        <v>0.006770400356000001</v>
       </c>
       <c r="S31">
-        <v>0.005956043918277741</v>
+        <v>3.802853283705774E-07</v>
       </c>
       <c r="T31">
-        <v>0.009058915548643624</v>
+        <v>6.363868496402737E-07</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H32">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I32">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J32">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N32">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O32">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P32">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q32">
-        <v>0.06588068128133334</v>
+        <v>0.02746107517783334</v>
       </c>
       <c r="R32">
-        <v>0.395284087688</v>
+        <v>0.164766451067</v>
       </c>
       <c r="S32">
-        <v>3.000186396711186E-05</v>
+        <v>1.388210312251484E-05</v>
       </c>
       <c r="T32">
-        <v>3.042112692127921E-05</v>
+        <v>1.548729723612469E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H33">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I33">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J33">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.543219</v>
       </c>
       <c r="O33">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P33">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q33">
-        <v>0.4056256595495555</v>
+        <v>0.05128738968677778</v>
       </c>
       <c r="R33">
-        <v>3.650630935945999</v>
+        <v>0.461586507181</v>
       </c>
       <c r="S33">
-        <v>0.0001847207045022455</v>
+        <v>2.592676462614119E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002809531435852255</v>
+        <v>4.338703292207114E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H34">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I34">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J34">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2545,28 +2545,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N34">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O34">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P34">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q34">
-        <v>0.004534610206666666</v>
+        <v>0.0006104293695555555</v>
       </c>
       <c r="R34">
-        <v>0.04081149185999999</v>
+        <v>0.005493864326</v>
       </c>
       <c r="S34">
-        <v>2.065047839795758E-06</v>
+        <v>3.085838191806203E-07</v>
       </c>
       <c r="T34">
-        <v>3.14085897305272E-06</v>
+        <v>5.163982670058553E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H35">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I35">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J35">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N35">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O35">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P35">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q35">
-        <v>1.316319668042</v>
+        <v>0.213490283497</v>
       </c>
       <c r="R35">
-        <v>7.897918008251999</v>
+        <v>1.280941700982</v>
       </c>
       <c r="S35">
-        <v>0.0005994480149527477</v>
+        <v>0.0001079234557266201</v>
       </c>
       <c r="T35">
-        <v>0.0006078250393234452</v>
+        <v>0.0001204026956749127</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H36">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I36">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J36">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N36">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O36">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P36">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q36">
-        <v>0.1609811622202222</v>
+        <v>0.002399350695222222</v>
       </c>
       <c r="R36">
-        <v>1.448830459982</v>
+        <v>0.021594156257</v>
       </c>
       <c r="S36">
-        <v>7.331033675219647E-05</v>
+        <v>1.212918050821219E-06</v>
       </c>
       <c r="T36">
-        <v>0.0001115022250663337</v>
+        <v>2.029752503314448E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H37">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I37">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J37">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N37">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O37">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P37">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q37">
-        <v>0.06018808929911111</v>
+        <v>7.516068244444445E-05</v>
       </c>
       <c r="R37">
-        <v>0.541692803692</v>
+        <v>0.000676446142</v>
       </c>
       <c r="S37">
-        <v>2.740947471203452E-05</v>
+        <v>3.799517454052909E-08</v>
       </c>
       <c r="T37">
-        <v>4.168876523677525E-05</v>
+        <v>6.358286166595748E-08</v>
       </c>
     </row>
   </sheetData>
